--- a/REGULAR/ONT/MARUNDAN, MARIA FLOR M..xlsx
+++ b/REGULAR/ONT/MARUNDAN, MARIA FLOR M..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>UT(0-0-12)</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -3077,7 +3080,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A91" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3240,7 +3244,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.597999999999999</v>
+        <v>68.347999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3250,7 +3254,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63</v>
+        <v>66.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5105,7 +5109,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B94" s="20" t="s">
         <v>74</v>
@@ -5131,7 +5135,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
@@ -5151,7 +5155,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
@@ -5171,7 +5175,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B97" s="20" t="s">
         <v>54</v>
@@ -5217,7 +5221,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -5237,7 +5241,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B100" s="20" t="s">
         <v>48</v>
@@ -5263,7 +5267,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>48</v>
@@ -5289,7 +5293,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13">
@@ -5309,18 +5313,20 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B103" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="13"/>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="39">
         <v>1</v>
@@ -5333,16 +5339,18 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
@@ -5351,25 +5359,33 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="39"/>
+        <v>45260</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D105" s="39">
+        <v>1</v>
+      </c>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G105" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
+      <c r="K105" s="49">
+        <v>45258</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5387,7 +5403,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45292</v>
+        <v>45322</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
